--- a/tacc_tests/tacc_timing_study_2.xlsx
+++ b/tacc_tests/tacc_timing_study_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghajoshi/Box Sync/Dissertation_Joshi/simulation/tacc_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C69DE6-9A3F-AE49-9B5C-26A7B8031D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE5589-FDA4-9A43-984C-FA0521327324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{B4E4B7AC-9D8F-EC42-97F2-C801E14E33A2}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,19 +463,19 @@
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">$C$11/B2</f>
-        <v>135.52941176470588</v>
+        <v>271.05882352941177</v>
       </c>
       <c r="D2">
         <f>ROUNDUP(C2,0)</f>
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E7" si="1">D2*$C$14</f>
-        <v>72.419546666666662</v>
+        <v>230.80907555555552</v>
       </c>
       <c r="F2">
         <f>E2*A2</f>
-        <v>72.419546666666662</v>
+        <v>230.80907555555552</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -488,19 +488,19 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>67.764705882352942</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>36.209773333333331</v>
+        <v>115.40453777777776</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F7" si="4">E3*A3</f>
-        <v>72.419546666666662</v>
+        <v>230.80907555555552</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -513,19 +513,19 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>45.176470588235297</v>
+        <v>90.352941176470594</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>24.494846666666664</v>
+        <v>77.21921277777777</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>73.484539999999996</v>
+        <v>231.6576383333333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -538,23 +538,23 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>33.882352941176471</v>
+        <v>67.764705882352942</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>18.104886666666665</v>
+        <v>57.702268888888881</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>72.419546666666662</v>
+        <v>230.80907555555552</v>
       </c>
       <c r="G5">
         <f>F5*((1000/50)/3)</f>
-        <v>482.79697777777778</v>
+        <v>1538.7271703703702</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -567,19 +567,19 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>27.105882352941176</v>
+        <v>54.211764705882352</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>14.909906666666664</v>
+        <v>46.670952777777771</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>74.549533333333329</v>
+        <v>233.35476388888884</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -592,19 +592,69 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>22.588235294117649</v>
+        <v>45.176470588235297</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>12.247423333333332</v>
+        <v>39.033887777777771</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>73.484539999999996</v>
+        <v>234.20332666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B9" si="5">A8*68</f>
+        <v>476</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C9" si="6">$C$11/B8</f>
+        <v>38.72268907563025</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="7">ROUNDUP(C8,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E9" si="8">D8*$C$14</f>
+        <v>33.09394833333333</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="9">E8*A8</f>
+        <v>231.6576383333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="5"/>
+        <v>544</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="6"/>
+        <v>33.882352941176471</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="8"/>
+        <v>28.85113444444444</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>230.80907555555552</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -620,8 +670,8 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <f>192*C10</f>
-        <v>9216</v>
+        <f>384*C10</f>
+        <v>18432</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -629,8 +679,8 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <f>958.494/25/60^2</f>
-        <v>1.0649933333333333E-2</v>
+        <f>1527.413/25/60^2</f>
+        <v>1.6971255555555554E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,7 +697,7 @@
       </c>
       <c r="C14">
         <f>C13*C12</f>
-        <v>0.53249666666666662</v>
+        <v>0.84856277777777767</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
